--- a/data/MisInfoText/Analysis_output/press_release/MisInfoText_press_release_sentiment_analysis.xlsx
+++ b/data/MisInfoText/Analysis_output/press_release/MisInfoText_press_release_sentiment_analysis.xlsx
@@ -7,25 +7,24 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2007" sheetId="1" r:id="rId1"/>
-    <sheet name="2008" sheetId="2" r:id="rId2"/>
-    <sheet name="2009" sheetId="3" r:id="rId3"/>
-    <sheet name="2010" sheetId="4" r:id="rId4"/>
-    <sheet name="2011" sheetId="5" r:id="rId5"/>
-    <sheet name="2012" sheetId="6" r:id="rId6"/>
-    <sheet name="2013" sheetId="7" r:id="rId7"/>
-    <sheet name="2014" sheetId="8" r:id="rId8"/>
-    <sheet name="2016" sheetId="9" r:id="rId9"/>
-    <sheet name="2017" sheetId="10" r:id="rId10"/>
-    <sheet name="2018" sheetId="11" r:id="rId11"/>
-    <sheet name="Summary" sheetId="12" r:id="rId12"/>
+    <sheet name="2009" sheetId="1" r:id="rId1"/>
+    <sheet name="2010" sheetId="2" r:id="rId2"/>
+    <sheet name="2011" sheetId="3" r:id="rId3"/>
+    <sheet name="2012" sheetId="4" r:id="rId4"/>
+    <sheet name="2013" sheetId="5" r:id="rId5"/>
+    <sheet name="2014" sheetId="6" r:id="rId6"/>
+    <sheet name="2015" sheetId="7" r:id="rId7"/>
+    <sheet name="2016" sheetId="8" r:id="rId8"/>
+    <sheet name="2017" sheetId="9" r:id="rId9"/>
+    <sheet name="2018" sheetId="10" r:id="rId10"/>
+    <sheet name="Summary" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="129">
   <si>
     <t>factcheckURL</t>
   </si>
@@ -36,15 +35,6 @@
     <t>subjectivity</t>
   </si>
   <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2007/aug/30/john-mccain/mccain-picks-and-chooses-in-attack-on-clinton/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2008/jun/17/republican-national-committee-republican/no-proof-rezko-saved-obama-money-on-home/</t>
-  </si>
-  <si>
-    <t>http://www.politifact.com/truth-o-meter/statements/2009/jan/13/people-american-way/seeing-red-over-warren/</t>
-  </si>
-  <si>
     <t>http://www.politifact.com/truth-o-meter/statements/2009/apr/01/michele-bachmann/defending-dollar-bachmann-distorts-geithners-comme/</t>
   </si>
   <si>
@@ -253,6 +243,27 @@
   </si>
   <si>
     <t>http://www.politifact.com/wisconsin/statements/2014/jun/16/democratic-congressional-campaign-committee/democratic-group-says-rep-sean-duffy-voted-against/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/oct/28/constitutional-rights-pac/paul-ryan-one-few-gop-vote-force-christian-employe/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/oct/13/lynn-westmoreland/Westmoreland-ran-doesnt-have-to-prove-nuclear-plan/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/may/03/robert-hurt/hurt-amiss-linking-estate-tax-small-farm-businesse/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/apr/13/dave-brat/brat-says-obamacare-repeal-would-save-nation-2-tri/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/mar/10/state-democratic-party-wisconsin/democratic-party-says-scott-walker-proposed-sellin/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/jan/23/john-cornyn/cornyn-says-keystone-pipeline-through-texas-create/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/jan/18/bobby-scott/bobby-scott-low-gas-prices-are-result-obama-polici/</t>
   </si>
   <si>
     <t>http://www.politifact.com/california/statements/2016/aug/05/dianne-feinstein/feinsteins-claim-about-prime-time-marijuana-tv-ads/</t>
@@ -770,7 +781,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -792,15 +803,63 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.09070247933884298</v>
+        <v>-0.002272727272727273</v>
       </c>
       <c r="C2">
-        <v>0.4303719008264462</v>
+        <v>0.1784090909090909</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>-0.04424873737373736</v>
+      </c>
+      <c r="C3">
+        <v>0.6070643939393939</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.07594246031746031</v>
+      </c>
+      <c r="C4">
+        <v>0.4851190476190476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.2375957375957376</v>
+      </c>
+      <c r="C5">
+        <v>0.3419857919857919</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.1148374983602256</v>
+      </c>
+      <c r="C6">
+        <v>0.4370425029515939</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -808,7 +867,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -827,200 +886,816 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B2">
-        <v>-0.04650958994708995</v>
+        <v>0.02330586080586081</v>
       </c>
       <c r="C2">
-        <v>0.4189550264550265</v>
+        <v>0.4494047619047618</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="B3">
-        <v>0.2888888888888889</v>
+        <v>0.123989898989899</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.3103896103896103</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B4">
-        <v>0.1005310601606898</v>
+        <v>0.2255050505050505</v>
       </c>
       <c r="C4">
-        <v>0.4544072114442486</v>
+        <v>0.4437062937062937</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B5">
-        <v>0.04285714285714286</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="C5">
-        <v>0.375</v>
+        <v>0.3443636363636363</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="B6">
-        <v>0.05657713498622589</v>
+        <v>0.1535714285714286</v>
       </c>
       <c r="C6">
-        <v>0.4070247933884297</v>
+        <v>0.3678571428571429</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="B7">
-        <v>0.04977070951647222</v>
+        <v>0.08585858585858586</v>
       </c>
       <c r="C7">
-        <v>0.3540079976520654</v>
+        <v>0.2595959595959596</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="B8">
-        <v>0.04101731601731601</v>
+        <v>0.1101190476190476</v>
       </c>
       <c r="C8">
+        <v>0.3587301587301587</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B2">
+        <v>0.2375957375957376</v>
+      </c>
+      <c r="C2">
+        <v>-0.04424873737373736</v>
+      </c>
+      <c r="D2">
+        <v>0.07637084632539178</v>
+      </c>
+      <c r="E2">
+        <v>0.09497943218397763</v>
+      </c>
+      <c r="F2">
+        <v>0.6070643939393939</v>
+      </c>
+      <c r="G2">
+        <v>0.1784090909090909</v>
+      </c>
+      <c r="H2">
+        <v>0.4099241654809836</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B3">
+        <v>0.3757142857142857</v>
+      </c>
+      <c r="C3">
+        <v>0.008333333333333331</v>
+      </c>
+      <c r="D3">
+        <v>0.1428941475757033</v>
+      </c>
+      <c r="E3">
+        <v>0.1428941475757033</v>
+      </c>
+      <c r="F3">
+        <v>0.6081717687074828</v>
+      </c>
+      <c r="G3">
+        <v>0.3033333333333333</v>
+      </c>
+      <c r="H3">
+        <v>0.4666813317780175</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B4">
+        <v>0.143719696969697</v>
+      </c>
+      <c r="C4">
+        <v>-0.33</v>
+      </c>
+      <c r="D4">
+        <v>0.04818046977724664</v>
+      </c>
+      <c r="E4">
+        <v>0.09889857520123442</v>
+      </c>
+      <c r="F4">
+        <v>0.6</v>
+      </c>
+      <c r="G4">
+        <v>0.3038239033693578</v>
+      </c>
+      <c r="H4">
+        <v>0.4312518678960395</v>
+      </c>
+      <c r="I4">
+        <v>13</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B5">
+        <v>0.206056049213944</v>
+      </c>
+      <c r="C5">
+        <v>-0.04166666666666666</v>
+      </c>
+      <c r="D5">
+        <v>0.1038083632922693</v>
+      </c>
+      <c r="E5">
+        <v>0.1107528077367137</v>
+      </c>
+      <c r="F5">
+        <v>0.5685308871023157</v>
+      </c>
+      <c r="G5">
+        <v>0.3195932539682539</v>
+      </c>
+      <c r="H5">
+        <v>0.4676734209828404</v>
+      </c>
+      <c r="I5">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B6">
+        <v>0.2085714285714285</v>
+      </c>
+      <c r="C6">
+        <v>-0.07916666666666672</v>
+      </c>
+      <c r="D6">
+        <v>0.06162058997298754</v>
+      </c>
+      <c r="E6">
+        <v>0.07555736536925239</v>
+      </c>
+      <c r="F6">
+        <v>0.5795634920634921</v>
+      </c>
+      <c r="G6">
+        <v>0.2097222222222222</v>
+      </c>
+      <c r="H6">
+        <v>0.4202550445293617</v>
+      </c>
+      <c r="I6">
+        <v>14</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B7">
+        <v>0.1539682539682539</v>
+      </c>
+      <c r="C7">
+        <v>-0.02067755476846387</v>
+      </c>
+      <c r="D7">
+        <v>0.04870527594345763</v>
+      </c>
+      <c r="E7">
+        <v>0.05691269160086731</v>
+      </c>
+      <c r="F7">
+        <v>0.6076923076923078</v>
+      </c>
+      <c r="G7">
+        <v>0.3293209876543209</v>
+      </c>
+      <c r="H7">
+        <v>0.4163792745632538</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B8">
+        <v>0.1301365301365301</v>
+      </c>
+      <c r="C8">
+        <v>0.01376663459996792</v>
+      </c>
+      <c r="D8">
+        <v>0.07428810714966481</v>
+      </c>
+      <c r="E8">
+        <v>0.07428810714966481</v>
+      </c>
+      <c r="F8">
+        <v>0.4598958333333334</v>
+      </c>
+      <c r="G8">
+        <v>0.3644277597402598</v>
+      </c>
+      <c r="H8">
+        <v>0.4164694767358876</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B9">
+        <v>0.2570175438596491</v>
+      </c>
+      <c r="C9">
+        <v>-0.1375874125874126</v>
+      </c>
+      <c r="D9">
+        <v>0.08072588730231971</v>
+      </c>
+      <c r="E9">
+        <v>0.1152111639304535</v>
+      </c>
+      <c r="F9">
+        <v>0.7111111111111112</v>
+      </c>
+      <c r="G9">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.4658834516775445</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B10">
+        <v>0.2888888888888889</v>
+      </c>
+      <c r="C10">
+        <v>-0.04650958994708995</v>
+      </c>
+      <c r="D10">
+        <v>0.08459121560716645</v>
+      </c>
+      <c r="E10">
+        <v>0.09455692762148958</v>
+      </c>
+      <c r="F10">
         <v>0.5433570397856113</v>
+      </c>
+      <c r="G10">
+        <v>0.3276605339105339</v>
+      </c>
+      <c r="H10">
+        <v>0.4225403514036186</v>
+      </c>
+      <c r="I10">
+        <v>16</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B11">
+        <v>0.2255050505050505</v>
+      </c>
+      <c r="C11">
+        <v>0.02330586080586081</v>
+      </c>
+      <c r="D11">
+        <v>0.1161798518941376</v>
+      </c>
+      <c r="E11">
+        <v>0.1161798518941376</v>
+      </c>
+      <c r="F11">
+        <v>0.4494047619047618</v>
+      </c>
+      <c r="G11">
+        <v>0.2595959595959596</v>
+      </c>
+      <c r="H11">
+        <v>0.3620067947925091</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0.03541666666666666</v>
+      </c>
+      <c r="C2">
+        <v>0.5416666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0.1614285714285714</v>
+      </c>
+      <c r="C3">
+        <v>0.5897619047619047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.1746313582251082</v>
+      </c>
+      <c r="C4">
+        <v>0.4121516504329004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0.1178853754940712</v>
+      </c>
+      <c r="C5">
+        <v>0.4969367588932805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0.08974358974358973</v>
+      </c>
+      <c r="C6">
+        <v>0.4547619047619047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0.008333333333333331</v>
+      </c>
+      <c r="C7">
+        <v>0.3266666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>0.3757142857142857</v>
+      </c>
+      <c r="C8">
+        <v>0.6081717687074828</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.1032556484611279</v>
+        <v>0.18</v>
       </c>
       <c r="C9">
-        <v>0.470713000849987</v>
+        <v>0.3033333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>0.1269770408163265</v>
+      </c>
+      <c r="C2">
+        <v>0.4329081632653061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>0.08089646464646465</v>
+      </c>
+      <c r="C3">
+        <v>0.4811363636363637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>0.0602394916911046</v>
+      </c>
+      <c r="C4">
+        <v>0.4872678396871944</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>0.06567001180637544</v>
+      </c>
+      <c r="C5">
+        <v>0.4194736324281779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>0.143719696969697</v>
+      </c>
+      <c r="C6">
+        <v>0.5270378787878787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>0.09516718913270637</v>
+      </c>
+      <c r="C7">
+        <v>0.4004409862168484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>0.1129593810444874</v>
+      </c>
+      <c r="C8">
+        <v>0.4612454330539437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>0.1427083333333333</v>
+      </c>
+      <c r="C9">
+        <v>0.3204861111111111</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>0.1239915481344053</v>
+        <v>0.06804958677685952</v>
       </c>
       <c r="C10">
-        <v>0.4804997938569365</v>
+        <v>0.3038239033693578</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="B11">
-        <v>0.1098581048581048</v>
+        <v>-0.33</v>
       </c>
       <c r="C11">
-        <v>0.4369693079251905</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="B12">
-        <v>0.07142857142857142</v>
+        <v>0.1321118158327461</v>
       </c>
       <c r="C12">
-        <v>0.3761904761904762</v>
+        <v>0.4333744420953723</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="B13">
-        <v>-0.04318181818181818</v>
+        <v>0.06240346320346321</v>
       </c>
       <c r="C13">
-        <v>0.3454545454545455</v>
+        <v>0.4819385281385281</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="B14">
-        <v>0.1247037161972227</v>
+        <v>-0.003571428571428575</v>
       </c>
       <c r="C14">
-        <v>0.3977061899139821</v>
+        <v>0.3726190476190476</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="B15">
-        <v>0.2025482093663912</v>
+        <v>-0.02547619047619048</v>
       </c>
       <c r="C15">
-        <v>0.4708677685950413</v>
+        <v>0.3269841269841269</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>0.05982142857142856</v>
+        <v>0.02092907092907093</v>
       </c>
       <c r="C16">
-        <v>0.3363095238095238</v>
+        <v>0.3402763902763902</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="B17">
-        <v>0.1340926669846162</v>
+        <v>-0.07205627705627705</v>
       </c>
       <c r="C17">
-        <v>0.4515179030009541</v>
+        <v>0.4485714285714286</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="B18">
-        <v>0.09246482683982686</v>
+        <v>0.1383403361344538</v>
       </c>
       <c r="C18">
-        <v>0.3276605339105339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19">
-        <v>0.01052631578947368</v>
-      </c>
-      <c r="C19">
-        <v>0.4590852130325814</v>
+        <v>0.4936974789915966</v>
       </c>
     </row>
   </sheetData>
@@ -1042,15 +1717,14 @@
     <hyperlink ref="A16" r:id="rId15"/>
     <hyperlink ref="A17" r:id="rId16"/>
     <hyperlink ref="A18" r:id="rId17"/>
-    <hyperlink ref="A19" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1069,766 +1743,134 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="B2">
-        <v>0.02330586080586081</v>
+        <v>0.1864675324675325</v>
       </c>
       <c r="C2">
-        <v>0.4494047619047618</v>
+        <v>0.4863679653679654</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="B3">
-        <v>0.123989898989899</v>
+        <v>0.09392929292929292</v>
       </c>
       <c r="C3">
-        <v>0.3103896103896103</v>
+        <v>0.427997113997114</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="B4">
-        <v>0.2255050505050505</v>
+        <v>0.08175118532261388</v>
       </c>
       <c r="C4">
-        <v>0.4437062937062937</v>
+        <v>0.4207560296846012</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="B5">
-        <v>0.0909090909090909</v>
+        <v>0.1601698103483818</v>
       </c>
       <c r="C5">
-        <v>0.3443636363636363</v>
+        <v>0.5685308871023157</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="B6">
-        <v>0.1535714285714286</v>
+        <v>0.07399930986887508</v>
       </c>
       <c r="C6">
-        <v>0.3678571428571429</v>
+        <v>0.4887853692201518</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="B7">
-        <v>0.08585858585858586</v>
+        <v>0.05198412698412699</v>
       </c>
       <c r="C7">
-        <v>0.2595959595959596</v>
+        <v>0.4527777777777778</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="B8">
-        <v>0.1101190476190476</v>
+        <v>0.1453733766233766</v>
       </c>
       <c r="C8">
-        <v>0.3587301587301587</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B2">
-        <v>0.09070247933884298</v>
-      </c>
-      <c r="C2">
-        <v>0.09070247933884298</v>
-      </c>
-      <c r="D2">
-        <v>0.09070247933884298</v>
-      </c>
-      <c r="E2">
-        <v>0.09070247933884298</v>
-      </c>
-      <c r="F2">
-        <v>0.4303719008264462</v>
-      </c>
-      <c r="G2">
-        <v>0.4303719008264462</v>
-      </c>
-      <c r="H2">
-        <v>0.4303719008264462</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B3">
-        <v>0.1376234145970988</v>
-      </c>
-      <c r="C3">
-        <v>0.1235238095238095</v>
-      </c>
-      <c r="D3">
-        <v>0.1305736120604542</v>
-      </c>
-      <c r="E3">
-        <v>0.1305736120604542</v>
-      </c>
-      <c r="F3">
-        <v>0.5004126984126984</v>
-      </c>
-      <c r="G3">
-        <v>0.3554117300827828</v>
-      </c>
-      <c r="H3">
-        <v>0.4279122142477406</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B4">
-        <v>0.2375957375957376</v>
-      </c>
-      <c r="C4">
-        <v>-0.04424873737373736</v>
-      </c>
-      <c r="D4">
-        <v>0.07637084632539178</v>
-      </c>
-      <c r="E4">
-        <v>0.09497943218397763</v>
-      </c>
-      <c r="F4">
-        <v>0.6070643939393939</v>
-      </c>
-      <c r="G4">
-        <v>0.1784090909090909</v>
-      </c>
-      <c r="H4">
-        <v>0.4099241654809836</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B5">
-        <v>0.3757142857142857</v>
-      </c>
-      <c r="C5">
-        <v>0.008333333333333331</v>
-      </c>
-      <c r="D5">
-        <v>0.1428941475757033</v>
-      </c>
-      <c r="E5">
-        <v>0.1428941475757033</v>
-      </c>
-      <c r="F5">
-        <v>0.6081717687074828</v>
-      </c>
-      <c r="G5">
-        <v>0.3033333333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.4666813317780175</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B6">
-        <v>0.143719696969697</v>
-      </c>
-      <c r="C6">
-        <v>-0.33</v>
-      </c>
-      <c r="D6">
-        <v>0.04818046977724664</v>
-      </c>
-      <c r="E6">
-        <v>0.09889857520123442</v>
-      </c>
-      <c r="F6">
-        <v>0.6</v>
-      </c>
-      <c r="G6">
-        <v>0.3038239033693578</v>
-      </c>
-      <c r="H6">
-        <v>0.4312518678960395</v>
-      </c>
-      <c r="I6">
-        <v>13</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B7">
-        <v>0.206056049213944</v>
-      </c>
-      <c r="C7">
-        <v>-0.04166666666666666</v>
-      </c>
-      <c r="D7">
-        <v>0.1038083632922693</v>
-      </c>
-      <c r="E7">
-        <v>0.1107528077367137</v>
-      </c>
-      <c r="F7">
-        <v>0.5685308871023157</v>
-      </c>
-      <c r="G7">
-        <v>0.3195932539682539</v>
-      </c>
-      <c r="H7">
-        <v>0.4676734209828404</v>
-      </c>
-      <c r="I7">
-        <v>11</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B8">
-        <v>0.2085714285714285</v>
-      </c>
-      <c r="C8">
-        <v>-0.07916666666666672</v>
-      </c>
-      <c r="D8">
-        <v>0.06162058997298754</v>
-      </c>
-      <c r="E8">
-        <v>0.07555736536925239</v>
-      </c>
-      <c r="F8">
-        <v>0.5795634920634921</v>
-      </c>
-      <c r="G8">
-        <v>0.2097222222222222</v>
-      </c>
-      <c r="H8">
-        <v>0.4202550445293617</v>
-      </c>
-      <c r="I8">
-        <v>14</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B9">
-        <v>0.1539682539682539</v>
-      </c>
-      <c r="C9">
-        <v>-0.02067755476846387</v>
-      </c>
-      <c r="D9">
-        <v>0.04870527594345763</v>
-      </c>
-      <c r="E9">
-        <v>0.05691269160086731</v>
-      </c>
-      <c r="F9">
-        <v>0.6076923076923078</v>
-      </c>
-      <c r="G9">
-        <v>0.3293209876543209</v>
-      </c>
-      <c r="H9">
-        <v>0.4163792745632538</v>
-      </c>
-      <c r="I9">
-        <v>6</v>
-      </c>
-      <c r="J9">
-        <v>4</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B10">
-        <v>0.2570175438596491</v>
-      </c>
-      <c r="C10">
-        <v>-0.1375874125874126</v>
-      </c>
-      <c r="D10">
-        <v>0.08072588730231971</v>
-      </c>
-      <c r="E10">
-        <v>0.1152111639304535</v>
-      </c>
-      <c r="F10">
-        <v>0.7111111111111112</v>
-      </c>
-      <c r="G10">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.4658834516775445</v>
-      </c>
-      <c r="I10">
-        <v>12</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B11">
-        <v>0.2888888888888889</v>
-      </c>
-      <c r="C11">
-        <v>-0.04650958994708995</v>
-      </c>
-      <c r="D11">
-        <v>0.08459121560716645</v>
-      </c>
-      <c r="E11">
-        <v>0.09455692762148958</v>
-      </c>
-      <c r="F11">
-        <v>0.5433570397856113</v>
-      </c>
-      <c r="G11">
-        <v>0.3276605339105339</v>
-      </c>
-      <c r="H11">
-        <v>0.4225403514036186</v>
-      </c>
-      <c r="I11">
-        <v>16</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B12">
-        <v>0.2255050505050505</v>
-      </c>
-      <c r="C12">
-        <v>0.02330586080586081</v>
-      </c>
-      <c r="D12">
-        <v>0.1161798518941376</v>
-      </c>
-      <c r="E12">
-        <v>0.1161798518941376</v>
-      </c>
-      <c r="F12">
-        <v>0.4494047619047618</v>
-      </c>
-      <c r="G12">
-        <v>0.2595959595959596</v>
-      </c>
-      <c r="H12">
-        <v>0.3620067947925091</v>
-      </c>
-      <c r="I12">
-        <v>7</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0.1376234145970988</v>
-      </c>
-      <c r="C2">
-        <v>0.3554117300827828</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0.1235238095238095</v>
-      </c>
-      <c r="C3">
-        <v>0.5004126984126984</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>-0.002272727272727273</v>
-      </c>
-      <c r="C2">
-        <v>0.1784090909090909</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>-0.04424873737373736</v>
-      </c>
-      <c r="C3">
-        <v>0.6070643939393939</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0.07594246031746031</v>
-      </c>
-      <c r="C4">
-        <v>0.4851190476190476</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>0.2375957375957376</v>
-      </c>
-      <c r="C5">
-        <v>0.3419857919857919</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0.1148374983602256</v>
-      </c>
-      <c r="C6">
-        <v>0.4370425029515939</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>0.03541666666666666</v>
-      </c>
-      <c r="C2">
-        <v>0.5416666666666667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>0.1614285714285714</v>
-      </c>
-      <c r="C3">
-        <v>0.5897619047619047</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>0.1746313582251082</v>
-      </c>
-      <c r="C4">
-        <v>0.4121516504329004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>0.1178853754940712</v>
-      </c>
-      <c r="C5">
-        <v>0.4969367588932805</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>0.08974358974358973</v>
-      </c>
-      <c r="C6">
-        <v>0.4547619047619047</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>0.008333333333333331</v>
-      </c>
-      <c r="C7">
-        <v>0.3266666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>0.3757142857142857</v>
-      </c>
-      <c r="C8">
-        <v>0.6081717687074828</v>
+        <v>0.421780303030303</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B9">
-        <v>0.18</v>
+        <v>0.1422268907563025</v>
       </c>
       <c r="C9">
-        <v>0.3033333333333333</v>
+        <v>0.509873949579832</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>0.206056049213944</v>
+      </c>
+      <c r="C10">
+        <v>0.4979777094250779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>0.003246753246753245</v>
+      </c>
+      <c r="C11">
+        <v>0.4926406926406926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>0.1421626984126984</v>
+      </c>
+      <c r="C12">
+        <v>0.3195932539682539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>-0.04166666666666666</v>
+      </c>
+      <c r="C13">
+        <v>0.525</v>
       </c>
     </row>
   </sheetData>
@@ -1841,6 +1883,10 @@
     <hyperlink ref="A7" r:id="rId6"/>
     <hyperlink ref="A8" r:id="rId7"/>
     <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1867,189 +1913,189 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B2">
-        <v>0.1269770408163265</v>
+        <v>0.2085714285714285</v>
       </c>
       <c r="C2">
-        <v>0.4329081632653061</v>
+        <v>0.2969047619047619</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B3">
-        <v>0.08089646464646465</v>
+        <v>0.02482290436835892</v>
       </c>
       <c r="C3">
-        <v>0.4811363636363637</v>
+        <v>0.3428800996982815</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B4">
-        <v>0.0602394916911046</v>
+        <v>0.1237710437710438</v>
       </c>
       <c r="C4">
-        <v>0.4872678396871944</v>
+        <v>0.3421380471380472</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B5">
-        <v>0.06567001180637544</v>
+        <v>0.0111111111111111</v>
       </c>
       <c r="C5">
-        <v>0.4194736324281779</v>
+        <v>0.2097222222222222</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B6">
-        <v>0.143719696969697</v>
+        <v>0.02363636363636364</v>
       </c>
       <c r="C6">
-        <v>0.5270378787878787</v>
+        <v>0.4029545454545455</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B7">
-        <v>0.09516718913270637</v>
+        <v>0.003904761904761913</v>
       </c>
       <c r="C7">
-        <v>0.4004409862168484</v>
+        <v>0.5226666666666666</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B8">
-        <v>0.1129593810444874</v>
+        <v>0.0925925925925926</v>
       </c>
       <c r="C8">
-        <v>0.4612454330539437</v>
+        <v>0.3129629629629629</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B9">
-        <v>0.1427083333333333</v>
+        <v>-0.03722222222222224</v>
       </c>
       <c r="C9">
-        <v>0.3204861111111111</v>
+        <v>0.5393650793650795</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B10">
-        <v>0.06804958677685952</v>
+        <v>-0.07916666666666672</v>
       </c>
       <c r="C10">
-        <v>0.3038239033693578</v>
+        <v>0.4854166666666668</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B11">
-        <v>-0.33</v>
+        <v>0.03813438334714932</v>
       </c>
       <c r="C11">
-        <v>0.6</v>
+        <v>0.469701575020724</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B12">
-        <v>0.1321118158327461</v>
+        <v>0.1332403707403707</v>
       </c>
       <c r="C12">
-        <v>0.4333744420953723</v>
+        <v>0.4353993228993229</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B13">
-        <v>0.06240346320346321</v>
+        <v>0.06154589371980677</v>
       </c>
       <c r="C13">
-        <v>0.4819385281385281</v>
+        <v>0.3672584541062802</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B14">
-        <v>-0.003571428571428575</v>
+        <v>0.08397727272727272</v>
       </c>
       <c r="C14">
-        <v>0.3726190476190476</v>
+        <v>0.4414917027417027</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B15">
-        <v>-0.02547619047619048</v>
+        <v>0.1762373737373738</v>
       </c>
       <c r="C15">
-        <v>0.3269841269841269</v>
+        <v>0.5334532828282827</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B16">
-        <v>0.02092907092907093</v>
+        <v>0.1045068027210884</v>
       </c>
       <c r="C16">
-        <v>0.3402763902763902</v>
+        <v>0.4502267573696144</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B17">
-        <v>-0.07205627705627705</v>
+        <v>-0.002073701979362368</v>
       </c>
       <c r="C17">
-        <v>0.4485714285714286</v>
+        <v>0.4122301178904955</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B18">
-        <v>0.1383403361344538</v>
+        <v>0.07996031746031747</v>
       </c>
       <c r="C18">
-        <v>0.4936974789915966</v>
+        <v>0.5795634920634921</v>
       </c>
     </row>
   </sheetData>
@@ -2078,7 +2124,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2097,134 +2143,424 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B2">
-        <v>0.1864675324675325</v>
+        <v>0.01075487012987013</v>
       </c>
       <c r="C2">
-        <v>0.4863679653679654</v>
+        <v>0.5378584956709955</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B3">
-        <v>0.09392929292929292</v>
+        <v>-0.006521739130434786</v>
       </c>
       <c r="C3">
-        <v>0.427997113997114</v>
+        <v>0.3566770186335402</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B4">
-        <v>0.08175118532261388</v>
+        <v>0.04346590909090911</v>
       </c>
       <c r="C4">
-        <v>0.4207560296846012</v>
+        <v>0.3984577922077922</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B5">
-        <v>0.1601698103483818</v>
+        <v>-0.01141975308641976</v>
       </c>
       <c r="C5">
-        <v>0.5685308871023157</v>
+        <v>0.3293209876543209</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B6">
-        <v>0.07399930986887508</v>
+        <v>0.08755639097744361</v>
       </c>
       <c r="C6">
-        <v>0.4887853692201518</v>
+        <v>0.4876942355889724</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B7">
-        <v>0.05198412698412699</v>
+        <v>0.14</v>
       </c>
       <c r="C7">
-        <v>0.4527777777777778</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B8">
-        <v>0.1453733766233766</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.421780303030303</v>
+        <v>0.6076923076923078</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B9">
-        <v>0.1422268907563025</v>
+        <v>0.1539682539682539</v>
       </c>
       <c r="C9">
-        <v>0.509873949579832</v>
+        <v>0.3388888888888889</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B10">
-        <v>0.206056049213944</v>
+        <v>0.1451533973273104</v>
       </c>
       <c r="C10">
-        <v>0.4979777094250779</v>
+        <v>0.3793898613463829</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B11">
-        <v>0.003246753246753245</v>
+        <v>-0.02067755476846387</v>
       </c>
       <c r="C11">
-        <v>0.4926406926406926</v>
+        <v>0.4275154138790503</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B12">
-        <v>0.1421626984126984</v>
+        <v>-0.006521739130434786</v>
       </c>
       <c r="C12">
-        <v>0.3195932539682539</v>
+        <v>0.3566770186335402</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2">
+        <v>0.01376663459996792</v>
+      </c>
+      <c r="C2">
+        <v>0.3928699695366363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3">
+        <v>0.1291666666666667</v>
+      </c>
+      <c r="C3">
+        <v>0.4598958333333334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>0.06045751633986929</v>
+      </c>
+      <c r="C4">
+        <v>0.4287581699346405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5">
+        <v>0.09740680615680615</v>
+      </c>
+      <c r="C5">
+        <v>0.3856920394420394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6">
+        <v>0.1301365301365301</v>
+      </c>
+      <c r="C6">
+        <v>0.4367826617826617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7">
+        <v>0.05699385155906894</v>
+      </c>
+      <c r="C7">
+        <v>0.4468599033816424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8">
+        <v>0.03208874458874459</v>
+      </c>
+      <c r="C8">
+        <v>0.3644277597402598</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2">
+        <v>0.02115384615384616</v>
+      </c>
+      <c r="C2">
+        <v>0.4185897435897435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3">
+        <v>0.2570175438596491</v>
+      </c>
+      <c r="C3">
+        <v>0.3429824561403509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4">
+        <v>-0.1375874125874126</v>
+      </c>
+      <c r="C4">
+        <v>0.3407342657342658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5">
+        <v>0.225</v>
+      </c>
+      <c r="C5">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6">
+        <v>0.02445707070707072</v>
+      </c>
+      <c r="C6">
+        <v>0.6406439393939395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7">
+        <v>-0.1038095238095238</v>
+      </c>
+      <c r="C7">
+        <v>0.5508791208791209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="C8">
+        <v>0.7111111111111112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9">
+        <v>0.05966914038342609</v>
+      </c>
+      <c r="C9">
+        <v>0.5308229525576463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10">
+        <v>0.09034767316017313</v>
+      </c>
+      <c r="C10">
+        <v>0.5308794793169792</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11">
+        <v>0.1473818181818182</v>
+      </c>
+      <c r="C11">
+        <v>0.4534060606060606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12">
+        <v>0.2161904761904762</v>
+      </c>
+      <c r="C12">
+        <v>0.6596719576719576</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="B13">
-        <v>-0.04166666666666666</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="C13">
-        <v>0.525</v>
+        <v>0.3714285714285714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14">
+        <v>0.08571428571428572</v>
+      </c>
+      <c r="C14">
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15">
+        <v>0.01129417094533374</v>
+      </c>
+      <c r="C15">
+        <v>0.387885331722541</v>
       </c>
     </row>
   </sheetData>
@@ -2241,14 +2577,16 @@
     <hyperlink ref="A11" r:id="rId10"/>
     <hyperlink ref="A12" r:id="rId11"/>
     <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2267,189 +2605,200 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B2">
-        <v>0.2085714285714285</v>
+        <v>-0.04650958994708995</v>
       </c>
       <c r="C2">
-        <v>0.2969047619047619</v>
+        <v>0.4189550264550265</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="B3">
-        <v>0.02482290436835892</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C3">
-        <v>0.3428800996982815</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B4">
-        <v>0.1237710437710438</v>
+        <v>0.1005310601606898</v>
       </c>
       <c r="C4">
-        <v>0.3421380471380472</v>
+        <v>0.4544072114442486</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="B5">
-        <v>0.0111111111111111</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="C5">
-        <v>0.2097222222222222</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="B6">
-        <v>0.02363636363636364</v>
+        <v>0.05657713498622589</v>
       </c>
       <c r="C6">
-        <v>0.4029545454545455</v>
+        <v>0.4070247933884297</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B7">
-        <v>0.003904761904761913</v>
+        <v>0.04977070951647222</v>
       </c>
       <c r="C7">
-        <v>0.5226666666666666</v>
+        <v>0.3540079976520654</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="B8">
-        <v>0.0925925925925926</v>
+        <v>0.04101731601731601</v>
       </c>
       <c r="C8">
-        <v>0.3129629629629629</v>
+        <v>0.5433570397856113</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="B9">
-        <v>-0.03722222222222224</v>
+        <v>0.1032556484611279</v>
       </c>
       <c r="C9">
-        <v>0.5393650793650795</v>
+        <v>0.470713000849987</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="B10">
-        <v>-0.07916666666666672</v>
+        <v>0.1239915481344053</v>
       </c>
       <c r="C10">
-        <v>0.4854166666666668</v>
+        <v>0.4804997938569365</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="B11">
-        <v>0.03813438334714932</v>
+        <v>0.1098581048581048</v>
       </c>
       <c r="C11">
-        <v>0.469701575020724</v>
+        <v>0.4369693079251905</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="B12">
-        <v>0.1332403707403707</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C12">
-        <v>0.4353993228993229</v>
+        <v>0.3761904761904762</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="B13">
-        <v>0.06154589371980677</v>
+        <v>-0.04318181818181818</v>
       </c>
       <c r="C13">
-        <v>0.3672584541062802</v>
+        <v>0.3454545454545455</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="B14">
-        <v>0.08397727272727272</v>
+        <v>0.1247037161972227</v>
       </c>
       <c r="C14">
-        <v>0.4414917027417027</v>
+        <v>0.3977061899139821</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="B15">
-        <v>0.1762373737373738</v>
+        <v>0.2025482093663912</v>
       </c>
       <c r="C15">
-        <v>0.5334532828282827</v>
+        <v>0.4708677685950413</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="B16">
-        <v>0.1045068027210884</v>
+        <v>0.05982142857142856</v>
       </c>
       <c r="C16">
-        <v>0.4502267573696144</v>
+        <v>0.3363095238095238</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="B17">
-        <v>-0.002073701979362368</v>
+        <v>0.1340926669846162</v>
       </c>
       <c r="C17">
-        <v>0.4122301178904955</v>
+        <v>0.4515179030009541</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="B18">
-        <v>0.07996031746031747</v>
+        <v>0.09246482683982686</v>
       </c>
       <c r="C18">
-        <v>0.5795634920634921</v>
+        <v>0.3276605339105339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19">
+        <v>0.01052631578947368</v>
+      </c>
+      <c r="C19">
+        <v>0.4590852130325814</v>
       </c>
     </row>
   </sheetData>
@@ -2471,358 +2820,7 @@
     <hyperlink ref="A16" r:id="rId15"/>
     <hyperlink ref="A17" r:id="rId16"/>
     <hyperlink ref="A18" r:id="rId17"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2">
-        <v>0.01075487012987013</v>
-      </c>
-      <c r="C2">
-        <v>0.5378584956709955</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3">
-        <v>-0.006521739130434786</v>
-      </c>
-      <c r="C3">
-        <v>0.3566770186335402</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4">
-        <v>0.04346590909090911</v>
-      </c>
-      <c r="C4">
-        <v>0.3984577922077922</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5">
-        <v>-0.01141975308641976</v>
-      </c>
-      <c r="C5">
-        <v>0.3293209876543209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6">
-        <v>0.08755639097744361</v>
-      </c>
-      <c r="C6">
-        <v>0.4876942355889724</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7">
-        <v>0.14</v>
-      </c>
-      <c r="C7">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0.6076923076923078</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9">
-        <v>0.1539682539682539</v>
-      </c>
-      <c r="C9">
-        <v>0.3388888888888889</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10">
-        <v>0.1451533973273104</v>
-      </c>
-      <c r="C10">
-        <v>0.3793898613463829</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11">
-        <v>-0.02067755476846387</v>
-      </c>
-      <c r="C11">
-        <v>0.4275154138790503</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12">
-        <v>-0.006521739130434786</v>
-      </c>
-      <c r="C12">
-        <v>0.3566770186335402</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A12" r:id="rId11"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2">
-        <v>0.02115384615384616</v>
-      </c>
-      <c r="C2">
-        <v>0.4185897435897435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3">
-        <v>0.2570175438596491</v>
-      </c>
-      <c r="C3">
-        <v>0.3429824561403509</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4">
-        <v>-0.1375874125874126</v>
-      </c>
-      <c r="C4">
-        <v>0.3407342657342658</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5">
-        <v>0.225</v>
-      </c>
-      <c r="C5">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6">
-        <v>0.02445707070707072</v>
-      </c>
-      <c r="C6">
-        <v>0.6406439393939395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7">
-        <v>-0.1038095238095238</v>
-      </c>
-      <c r="C7">
-        <v>0.5508791208791209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="C8">
-        <v>0.7111111111111112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9">
-        <v>0.05966914038342609</v>
-      </c>
-      <c r="C9">
-        <v>0.5308229525576463</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10">
-        <v>0.09034767316017313</v>
-      </c>
-      <c r="C10">
-        <v>0.5308794793169792</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11">
-        <v>0.1473818181818182</v>
-      </c>
-      <c r="C11">
-        <v>0.4534060606060606</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12">
-        <v>0.2161904761904762</v>
-      </c>
-      <c r="C12">
-        <v>0.6596719576719576</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13">
-        <v>0.09999999999999999</v>
-      </c>
-      <c r="C13">
-        <v>0.3714285714285714</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14">
-        <v>0.08571428571428572</v>
-      </c>
-      <c r="C14">
-        <v>0.1333333333333333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15">
-        <v>0.01129417094533374</v>
-      </c>
-      <c r="C15">
-        <v>0.387885331722541</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A12" r:id="rId11"/>
-    <hyperlink ref="A13" r:id="rId12"/>
-    <hyperlink ref="A14" r:id="rId13"/>
-    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A19" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
